--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dlk2-Notch1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dlk2-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,12 +89,6 @@
   </si>
   <si>
     <t>Notch1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.351253419244343</v>
+        <v>0.035655</v>
       </c>
       <c r="H2">
-        <v>0.351253419244343</v>
+        <v>0.106965</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05464328735324499</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.05464328735324499</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>59.5518718847718</v>
+        <v>60.14337933333334</v>
       </c>
       <c r="N2">
-        <v>59.5518718847718</v>
+        <v>180.430138</v>
       </c>
       <c r="O2">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606099</v>
       </c>
       <c r="P2">
-        <v>0.5442012925791203</v>
+        <v>0.5373443142606098</v>
       </c>
       <c r="Q2">
-        <v>20.91779862192715</v>
+        <v>2.14441219013</v>
       </c>
       <c r="R2">
-        <v>20.91779862192715</v>
+        <v>19.29970971117</v>
       </c>
       <c r="S2">
-        <v>0.5442012925791203</v>
+        <v>0.02936225977177489</v>
       </c>
       <c r="T2">
-        <v>0.5442012925791203</v>
+        <v>0.02936225977177488</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.351253419244343</v>
+        <v>0.035655</v>
       </c>
       <c r="H3">
-        <v>0.351253419244343</v>
+        <v>0.106965</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.05464328735324499</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.05464328735324499</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.8601906248227</v>
+        <v>11.05007466666667</v>
       </c>
       <c r="N3">
-        <v>10.8601906248227</v>
+        <v>33.150224</v>
       </c>
       <c r="O3">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390839</v>
       </c>
       <c r="P3">
-        <v>0.09924339216607321</v>
+        <v>0.09872565958390837</v>
       </c>
       <c r="Q3">
-        <v>3.814679090614331</v>
+        <v>0.39399041224</v>
       </c>
       <c r="R3">
-        <v>3.814679090614331</v>
+        <v>3.54591371016</v>
       </c>
       <c r="S3">
-        <v>0.09924339216607321</v>
+        <v>0.005394694585782151</v>
       </c>
       <c r="T3">
-        <v>0.09924339216607321</v>
+        <v>0.00539469458578215</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,49 +661,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.351253419244343</v>
+        <v>0.035655</v>
       </c>
       <c r="H4">
-        <v>0.351253419244343</v>
+        <v>0.106965</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.05464328735324499</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.05464328735324499</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.0361842023177</v>
+        <v>12.25483666666667</v>
       </c>
       <c r="N4">
-        <v>12.0361842023177</v>
+        <v>36.76451</v>
       </c>
       <c r="O4">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="P4">
-        <v>0.1099899431086839</v>
+        <v>0.1094894712937444</v>
       </c>
       <c r="Q4">
-        <v>4.227750855718837</v>
+        <v>0.43694620135</v>
       </c>
       <c r="R4">
-        <v>4.227750855718837</v>
+        <v>3.93251581215</v>
       </c>
       <c r="S4">
-        <v>0.1099899431086839</v>
+        <v>0.005982864642058943</v>
       </c>
       <c r="T4">
-        <v>0.1099899431086839</v>
+        <v>0.005982864642058941</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -723,49 +723,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.351253419244343</v>
+        <v>0.035655</v>
       </c>
       <c r="H5">
-        <v>0.351253419244343</v>
+        <v>0.106965</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.05464328735324499</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.05464328735324499</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.9306142311359</v>
+        <v>13.120599</v>
       </c>
       <c r="N5">
-        <v>12.9306142311359</v>
+        <v>39.361797</v>
       </c>
       <c r="O5">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="P5">
-        <v>0.1181634893365215</v>
+        <v>0.1172245282937728</v>
       </c>
       <c r="Q5">
-        <v>4.541922461616046</v>
+        <v>0.467814957345</v>
       </c>
       <c r="R5">
-        <v>4.541922461616046</v>
+        <v>4.210334616105</v>
       </c>
       <c r="S5">
-        <v>0.1181634893365215</v>
+        <v>0.006405533584405224</v>
       </c>
       <c r="T5">
-        <v>0.1181634893365215</v>
+        <v>0.006405533584405224</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.035655</v>
+      </c>
+      <c r="H6">
+        <v>0.106965</v>
+      </c>
+      <c r="I6">
+        <v>0.05464328735324499</v>
+      </c>
+      <c r="J6">
+        <v>0.05464328735324499</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>15.358189</v>
+      </c>
+      <c r="N6">
+        <v>46.074567</v>
+      </c>
+      <c r="O6">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="P6">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="Q6">
+        <v>0.547596228795</v>
+      </c>
+      <c r="R6">
+        <v>4.928366059155</v>
+      </c>
+      <c r="S6">
+        <v>0.00749793476922379</v>
+      </c>
+      <c r="T6">
+        <v>0.007497934769223789</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.1910563333333334</v>
+      </c>
+      <c r="H7">
+        <v>0.573169</v>
+      </c>
+      <c r="I7">
+        <v>0.2928045469917457</v>
+      </c>
+      <c r="J7">
+        <v>0.2928045469917457</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>60.14337933333334</v>
+      </c>
+      <c r="N7">
+        <v>180.430138</v>
+      </c>
+      <c r="O7">
+        <v>0.5373443142606099</v>
+      </c>
+      <c r="P7">
+        <v>0.5373443142606098</v>
+      </c>
+      <c r="Q7">
+        <v>11.49077352970245</v>
+      </c>
+      <c r="R7">
+        <v>103.416961767322</v>
+      </c>
+      <c r="S7">
+        <v>0.1573368585156681</v>
+      </c>
+      <c r="T7">
+        <v>0.1573368585156681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1910563333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.573169</v>
+      </c>
+      <c r="I8">
+        <v>0.2928045469917457</v>
+      </c>
+      <c r="J8">
+        <v>0.2928045469917457</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>11.05007466666667</v>
+      </c>
+      <c r="N8">
+        <v>33.150224</v>
+      </c>
+      <c r="O8">
+        <v>0.09872565958390839</v>
+      </c>
+      <c r="P8">
+        <v>0.09872565958390837</v>
+      </c>
+      <c r="Q8">
+        <v>2.111186748872889</v>
+      </c>
+      <c r="R8">
+        <v>19.000680739856</v>
+      </c>
+      <c r="S8">
+        <v>0.02890732203092759</v>
+      </c>
+      <c r="T8">
+        <v>0.02890732203092759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1910563333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.573169</v>
+      </c>
+      <c r="I9">
+        <v>0.2928045469917457</v>
+      </c>
+      <c r="J9">
+        <v>0.2928045469917457</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>12.25483666666667</v>
+      </c>
+      <c r="N9">
+        <v>36.76451</v>
+      </c>
+      <c r="O9">
+        <v>0.1094894712937444</v>
+      </c>
+      <c r="P9">
+        <v>0.1094894712937444</v>
+      </c>
+      <c r="Q9">
+        <v>2.341364159132223</v>
+      </c>
+      <c r="R9">
+        <v>21.07227743219</v>
+      </c>
+      <c r="S9">
+        <v>0.03205901504253057</v>
+      </c>
+      <c r="T9">
+        <v>0.03205901504253056</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1910563333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.573169</v>
+      </c>
+      <c r="I10">
+        <v>0.2928045469917457</v>
+      </c>
+      <c r="J10">
+        <v>0.2928045469917457</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.120599</v>
+      </c>
+      <c r="N10">
+        <v>39.361797</v>
+      </c>
+      <c r="O10">
+        <v>0.1172245282937728</v>
+      </c>
+      <c r="P10">
+        <v>0.1172245282937728</v>
+      </c>
+      <c r="Q10">
+        <v>2.506773536077</v>
+      </c>
+      <c r="R10">
+        <v>22.560961824693</v>
+      </c>
+      <c r="S10">
+        <v>0.03432387490337922</v>
+      </c>
+      <c r="T10">
+        <v>0.03432387490337922</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1910563333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.573169</v>
+      </c>
+      <c r="I11">
+        <v>0.2928045469917457</v>
+      </c>
+      <c r="J11">
+        <v>0.2928045469917457</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>15.358189</v>
+      </c>
+      <c r="N11">
+        <v>46.074567</v>
+      </c>
+      <c r="O11">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="P11">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="Q11">
+        <v>2.934279276980334</v>
+      </c>
+      <c r="R11">
+        <v>26.408513492823</v>
+      </c>
+      <c r="S11">
+        <v>0.04017747649924023</v>
+      </c>
+      <c r="T11">
+        <v>0.04017747649924022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.351253419244343</v>
-      </c>
-      <c r="H6">
-        <v>0.351253419244343</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>14.0510002072976</v>
-      </c>
-      <c r="N6">
-        <v>14.0510002072976</v>
-      </c>
-      <c r="O6">
-        <v>0.128401882809601</v>
-      </c>
-      <c r="P6">
-        <v>0.128401882809601</v>
-      </c>
-      <c r="Q6">
-        <v>4.935461866616254</v>
-      </c>
-      <c r="R6">
-        <v>4.935461866616254</v>
-      </c>
-      <c r="S6">
-        <v>0.128401882809601</v>
-      </c>
-      <c r="T6">
-        <v>0.128401882809601</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.4257933333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.27738</v>
+      </c>
+      <c r="I12">
+        <v>0.6525521656550094</v>
+      </c>
+      <c r="J12">
+        <v>0.6525521656550094</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>60.14337933333334</v>
+      </c>
+      <c r="N12">
+        <v>180.430138</v>
+      </c>
+      <c r="O12">
+        <v>0.5373443142606099</v>
+      </c>
+      <c r="P12">
+        <v>0.5373443142606098</v>
+      </c>
+      <c r="Q12">
+        <v>25.60864996427111</v>
+      </c>
+      <c r="R12">
+        <v>230.47784967844</v>
+      </c>
+      <c r="S12">
+        <v>0.350645195973167</v>
+      </c>
+      <c r="T12">
+        <v>0.3506451959731669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4257933333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.27738</v>
+      </c>
+      <c r="I13">
+        <v>0.6525521656550094</v>
+      </c>
+      <c r="J13">
+        <v>0.6525521656550094</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.05007466666667</v>
+      </c>
+      <c r="N13">
+        <v>33.150224</v>
+      </c>
+      <c r="O13">
+        <v>0.09872565958390839</v>
+      </c>
+      <c r="P13">
+        <v>0.09872565958390837</v>
+      </c>
+      <c r="Q13">
+        <v>4.705048125902222</v>
+      </c>
+      <c r="R13">
+        <v>42.34543313312</v>
+      </c>
+      <c r="S13">
+        <v>0.06442364296719866</v>
+      </c>
+      <c r="T13">
+        <v>0.06442364296719864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4257933333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.27738</v>
+      </c>
+      <c r="I14">
+        <v>0.6525521656550094</v>
+      </c>
+      <c r="J14">
+        <v>0.6525521656550094</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>12.25483666666667</v>
+      </c>
+      <c r="N14">
+        <v>36.76451</v>
+      </c>
+      <c r="O14">
+        <v>0.1094894712937444</v>
+      </c>
+      <c r="P14">
+        <v>0.1094894712937444</v>
+      </c>
+      <c r="Q14">
+        <v>5.218027753755556</v>
+      </c>
+      <c r="R14">
+        <v>46.9622497838</v>
+      </c>
+      <c r="S14">
+        <v>0.07144759160915488</v>
+      </c>
+      <c r="T14">
+        <v>0.07144759160915486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4257933333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.27738</v>
+      </c>
+      <c r="I15">
+        <v>0.6525521656550094</v>
+      </c>
+      <c r="J15">
+        <v>0.6525521656550094</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>13.120599</v>
+      </c>
+      <c r="N15">
+        <v>39.361797</v>
+      </c>
+      <c r="O15">
+        <v>0.1172245282937728</v>
+      </c>
+      <c r="P15">
+        <v>0.1172245282937728</v>
+      </c>
+      <c r="Q15">
+        <v>5.58666358354</v>
+      </c>
+      <c r="R15">
+        <v>50.27997225186</v>
+      </c>
+      <c r="S15">
+        <v>0.07649511980598837</v>
+      </c>
+      <c r="T15">
+        <v>0.07649511980598836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4257933333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.27738</v>
+      </c>
+      <c r="I16">
+        <v>0.6525521656550094</v>
+      </c>
+      <c r="J16">
+        <v>0.6525521656550094</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>15.358189</v>
+      </c>
+      <c r="N16">
+        <v>46.074567</v>
+      </c>
+      <c r="O16">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="P16">
+        <v>0.1372160265679646</v>
+      </c>
+      <c r="Q16">
+        <v>6.539414488273334</v>
+      </c>
+      <c r="R16">
+        <v>58.85473039446</v>
+      </c>
+      <c r="S16">
+        <v>0.08954061529950064</v>
+      </c>
+      <c r="T16">
+        <v>0.08954061529950061</v>
       </c>
     </row>
   </sheetData>
